--- a/Doc/Journal de bord.xlsx
+++ b/Doc/Journal de bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Apprentissage\1re annee\2e Trimestre\MA-20\Bataille_Navale\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Apprentissage\1re annee\2e Trimestre\MA-20\Bataille_Navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47775390-CB47-4A77-885D-B62658843C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DF0978-DA51-4845-A494-731525EF7B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{232D4DD1-8272-45DF-AAF1-8A2BD02C9C3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{232D4DD1-8272-45DF-AAF1-8A2BD02C9C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Test du programme</t>
+  </si>
+  <si>
+    <t>26.03.2020</t>
+  </si>
+  <si>
+    <t>Fonction login implémentée</t>
+  </si>
+  <si>
+    <t>01.04.2020</t>
+  </si>
+  <si>
+    <t>Système de logs implémenté</t>
   </si>
 </sst>
 </file>
@@ -76,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -237,17 +249,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5E20A7-D0BD-4C71-AB71-D790AD06CADA}">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,98 +596,108 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>43887</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>43889</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>43894</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>43894</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>43902</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="9">
         <v>43906</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>43908</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>43908</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>43908</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>43908</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -691,6 +722,12 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Journal de bord.xlsx
+++ b/Doc/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Apprentissage\1re annee\2e Trimestre\MA-20\Bataille_Navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DF0978-DA51-4845-A494-731525EF7B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE41305-5E92-436C-93EF-32EC786B40E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{232D4DD1-8272-45DF-AAF1-8A2BD02C9C3A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>Système de logs implémenté</t>
+  </si>
+  <si>
+    <t>04.04.2020</t>
+  </si>
+  <si>
+    <t>Récupération des plans de jeu depuis la bibliothèque implémentée</t>
+  </si>
+  <si>
+    <t>08.04.2020</t>
+  </si>
+  <si>
+    <t>Système de scores implémenté</t>
+  </si>
+  <si>
+    <t>Version 0.1 terminée</t>
   </si>
 </sst>
 </file>
@@ -121,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -245,11 +260,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,6 +310,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,15 +628,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5E20A7-D0BD-4C71-AB71-D790AD06CADA}">
-  <dimension ref="B2:C25"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -691,43 +736,67 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
